--- a/dataset/OMFIT-2019-2-Monthly-Servicer-Report-July-2021-Excel_InvestorVersion.xlsx
+++ b/dataset/OMFIT-2019-2-Monthly-Servicer-Report-July-2021-Excel_InvestorVersion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Trsry\Investor Reporting\Term Securitizations\OMFIT 2019-2 Term Securitization\Monthly Servicer Reports\2021\07.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c9a2edfe12abe1ef/Desktop/NYCDSA/Python Project/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8391784E-3A4C-4C06-B775-135BC55F32EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8391784E-3A4C-4C06-B775-135BC55F32EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0131DEFD-C64F-48FC-82A3-ABC5CE53F6AF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
@@ -663,16 +663,16 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -685,40 +685,37 @@
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -745,17 +742,16 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1074,40 +1070,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="F199" sqref="F199"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="68" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="21.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>167</v>
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>166</v>
       </c>
@@ -1115,7 +1111,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>165</v>
       </c>
@@ -1123,7 +1119,7 @@
         <v>44408</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>164</v>
       </c>
@@ -1131,7 +1127,7 @@
         <v>44424</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>163</v>
       </c>
@@ -1139,7 +1135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>162</v>
       </c>
@@ -1147,15 +1143,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G10" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>160</v>
       </c>
@@ -1163,7 +1159,7 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>159</v>
       </c>
@@ -1171,10 +1167,10 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>158</v>
       </c>
@@ -1191,7 +1187,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>153</v>
       </c>
@@ -1211,7 +1207,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>146</v>
       </c>
@@ -1225,7 +1221,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>143</v>
       </c>
@@ -1242,7 +1238,7 @@
         <v>49962</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>142</v>
       </c>
@@ -1259,7 +1255,7 @@
         <v>49962</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>141</v>
       </c>
@@ -1276,7 +1272,7 @@
         <v>49962</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>140</v>
       </c>
@@ -1293,7 +1289,7 @@
         <v>49962</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>139</v>
       </c>
@@ -1306,7 +1302,7 @@
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>149</v>
       </c>
@@ -1319,7 +1315,7 @@
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>148</v>
       </c>
@@ -1332,12 +1328,12 @@
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="21"/>
       <c r="C29" s="21" t="s">
         <v>125</v>
@@ -1350,7 +1346,7 @@
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
         <v>146</v>
       </c>
@@ -1369,7 +1365,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>143</v>
       </c>
@@ -1380,18 +1376,18 @@
         <v>1</v>
       </c>
       <c r="D31" s="15"/>
-      <c r="E31" s="23">
+      <c r="E31" s="14">
         <v>651320000</v>
       </c>
       <c r="F31" s="22">
         <v>1</v>
       </c>
       <c r="G31" s="15"/>
-      <c r="H31" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>142</v>
       </c>
@@ -1402,18 +1398,18 @@
         <v>1</v>
       </c>
       <c r="D32" s="15"/>
-      <c r="E32" s="23">
+      <c r="E32" s="14">
         <v>91420000</v>
       </c>
       <c r="F32" s="22">
         <v>1</v>
       </c>
       <c r="G32" s="15"/>
-      <c r="H32" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>141</v>
       </c>
@@ -1424,40 +1420,40 @@
         <v>1</v>
       </c>
       <c r="D33" s="15"/>
-      <c r="E33" s="23">
+      <c r="E33" s="14">
         <v>59210000</v>
       </c>
       <c r="F33" s="22">
         <v>1</v>
       </c>
       <c r="G33" s="15"/>
-      <c r="H33" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B34" s="16">
         <v>98050000</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="23">
         <v>1</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="16">
         <v>98050000</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="23">
         <v>1</v>
       </c>
       <c r="G34" s="15"/>
-      <c r="H34" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>139</v>
       </c>
@@ -1473,16 +1469,16 @@
       <c r="F35" s="22">
         <v>1</v>
       </c>
-      <c r="H35" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>137</v>
       </c>
@@ -1490,7 +1486,7 @@
         <v>994796646.92999995</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>136</v>
       </c>
@@ -1498,7 +1494,7 @@
         <v>-32865173.969999999</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
@@ -1506,7 +1502,7 @@
         <v>-4114697.8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>135</v>
       </c>
@@ -1514,7 +1510,7 @@
         <v>-374257.68</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>134</v>
       </c>
@@ -1522,7 +1518,7 @@
         <v>-23272710.780000001</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>133</v>
       </c>
@@ -1530,20 +1526,18 @@
         <v>34137927.460000001</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F46" s="9">
         <v>26487281.489999998</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F48" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>131</v>
       </c>
@@ -1551,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>130</v>
       </c>
@@ -1559,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>129</v>
       </c>
@@ -1567,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>128</v>
       </c>
@@ -1575,15 +1569,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F53" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F53" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>172</v>
       </c>
@@ -1591,12 +1585,12 @@
         <v>994795015.64999998</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C57" s="8" t="s">
         <v>125</v>
       </c>
@@ -1604,40 +1598,40 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="28">
+      <c r="C58" s="25">
         <v>25.81</v>
       </c>
-      <c r="F58" s="28">
+      <c r="F58" s="25">
         <v>25.82</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="29">
+      <c r="C59" s="26">
         <v>630</v>
       </c>
-      <c r="F59" s="29">
+      <c r="F59" s="26">
         <v>630.63</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="29">
+      <c r="C60" s="26">
         <v>42.580005999999997</v>
       </c>
-      <c r="F60" s="29">
+      <c r="F60" s="26">
         <v>42.38</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>121</v>
       </c>
@@ -1650,114 +1644,114 @@
         <v>994795015.64999998</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C62" s="29">
+      <c r="C62" s="26">
         <v>128169</v>
       </c>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29">
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26">
         <v>128184</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
       <c r="H64" s="14"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="28">
+      <c r="C65" s="25">
         <v>26.44</v>
       </c>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="29">
+      <c r="C66" s="26">
         <v>632</v>
       </c>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="24">
+      <c r="C67" s="9">
         <v>60436925.25</v>
       </c>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C68" s="29">
+      <c r="C68" s="26">
         <v>6199</v>
       </c>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="30" t="s">
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="30" t="s">
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>116</v>
       </c>
@@ -1765,7 +1759,7 @@
         <v>32865173.969999999</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>115</v>
       </c>
@@ -1773,7 +1767,7 @@
         <v>374257.68</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>114</v>
       </c>
@@ -1781,15 +1775,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F79" s="27">
+      <c r="F79" s="24">
         <v>360647.8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>112</v>
       </c>
@@ -1797,16 +1791,16 @@
         <v>33600079.450000003</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F81" s="9"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F82" s="9"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>110</v>
       </c>
@@ -1814,15 +1808,15 @@
         <v>21118880.309999999</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F84" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>108</v>
       </c>
@@ -1830,10 +1824,10 @@
         <v>21118880.309999999</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F86" s="9"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>107</v>
       </c>
@@ -1841,7 +1835,7 @@
         <v>-10865216.68</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>106</v>
       </c>
@@ -1849,23 +1843,23 @@
         <v>-26487281.489999998</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F89" s="27">
+      <c r="F89" s="24">
         <v>-2901490.22</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F90" s="14">
         <v>-40253988.390000001</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F91" s="14"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>104</v>
       </c>
@@ -1873,7 +1867,7 @@
         <v>760.43</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>103</v>
       </c>
@@ -1881,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>102</v>
       </c>
@@ -1889,7 +1883,7 @@
         <v>96.53</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>76</v>
       </c>
@@ -1897,10 +1891,10 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F97" s="9"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>101</v>
       </c>
@@ -1908,10 +1902,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F99" s="9"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>100</v>
       </c>
@@ -1919,20 +1913,20 @@
         <v>18965828.329999998</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="31" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="28" t="s">
         <v>98</v>
       </c>
       <c r="F104" s="9">
         <v>833.33</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>97</v>
       </c>
@@ -1940,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>96</v>
       </c>
@@ -1948,7 +1942,7 @@
         <v>20724.93</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>95</v>
       </c>
@@ -1956,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>94</v>
       </c>
@@ -1964,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>93</v>
       </c>
@@ -1972,7 +1966,7 @@
         <v>1704287.33</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>92</v>
       </c>
@@ -1980,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>91</v>
       </c>
@@ -1988,7 +1982,7 @@
         <v>259785.17</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>90</v>
       </c>
@@ -1996,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>89</v>
       </c>
@@ -2004,7 +1998,7 @@
         <v>180590.5</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>88</v>
       </c>
@@ -2012,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>87</v>
       </c>
@@ -2020,7 +2014,7 @@
         <v>330918.75</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>86</v>
       </c>
@@ -2028,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>85</v>
       </c>
@@ -2037,7 +2031,7 @@
       </c>
       <c r="H117" s="9"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>84</v>
       </c>
@@ -2046,7 +2040,7 @@
       </c>
       <c r="H118" s="9"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>83</v>
       </c>
@@ -2055,7 +2049,7 @@
       </c>
       <c r="H119" s="14"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>82</v>
       </c>
@@ -2063,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>81</v>
       </c>
@@ -2071,16 +2065,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F122" s="27">
+      <c r="F122" s="24">
         <v>11968688.32</v>
       </c>
       <c r="H122" s="14"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>79</v>
       </c>
@@ -2088,12 +2082,12 @@
         <v>18965828.329999998</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>77</v>
       </c>
@@ -2101,7 +2095,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>76</v>
       </c>
@@ -2109,7 +2103,7 @@
         <v>-4500000</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>75</v>
       </c>
@@ -2117,7 +2111,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>74</v>
       </c>
@@ -2125,7 +2119,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>73</v>
       </c>
@@ -2133,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>72</v>
       </c>
@@ -2141,12 +2135,12 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>70</v>
       </c>
@@ -2154,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>69</v>
       </c>
@@ -2162,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>68</v>
       </c>
@@ -2170,10 +2164,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F138" s="9"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>67</v>
       </c>
@@ -2181,13 +2175,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F140" s="9"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>65</v>
       </c>
@@ -2195,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>64</v>
       </c>
@@ -2203,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>63</v>
       </c>
@@ -2211,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>62</v>
       </c>
@@ -2219,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>61</v>
       </c>
@@ -2227,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>60</v>
       </c>
@@ -2235,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>59</v>
       </c>
@@ -2243,16 +2237,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F148" s="9"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F149" s="9"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>57</v>
       </c>
@@ -2260,7 +2254,7 @@
         <v>994795015.64999998</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>56</v>
       </c>
@@ -2268,15 +2262,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F153" s="27">
+      <c r="F153" s="24">
         <v>900000000</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>54</v>
       </c>
@@ -2284,7 +2278,7 @@
         <v>94795015.650000006</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>53</v>
       </c>
@@ -2292,7 +2286,7 @@
         <v>94742882.450000003</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>26</v>
       </c>
@@ -2300,284 +2294,284 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C159" s="32" t="s">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C159" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D159" s="32" t="s">
+      <c r="D159" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E159" s="32" t="s">
+      <c r="E159" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F159" s="32" t="s">
+      <c r="F159" s="29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C160" s="29">
+      <c r="C160" s="26">
         <v>119701</v>
       </c>
-      <c r="D160" s="33">
+      <c r="D160" s="30">
         <v>0.93379999999999996</v>
       </c>
-      <c r="E160" s="24">
+      <c r="E160" s="9">
         <v>925979303.00999999</v>
       </c>
-      <c r="F160" s="33">
+      <c r="F160" s="30">
         <v>0.93079999999999996</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C161" s="29">
+      <c r="C161" s="26">
         <v>5248</v>
       </c>
-      <c r="D161" s="33">
+      <c r="D161" s="30">
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="E161" s="24">
+      <c r="E161" s="9">
         <v>43693347.130000003</v>
       </c>
-      <c r="F161" s="33">
+      <c r="F161" s="30">
         <v>4.3900000000000002E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C162" s="29">
+      <c r="C162" s="26">
         <v>1059</v>
       </c>
-      <c r="D162" s="33">
+      <c r="D162" s="30">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="E162" s="24">
+      <c r="E162" s="9">
         <v>8166190.6299999999</v>
       </c>
-      <c r="F162" s="33">
+      <c r="F162" s="30">
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C163" s="29">
+      <c r="C163" s="26">
         <v>650</v>
       </c>
-      <c r="D163" s="33">
+      <c r="D163" s="30">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="E163" s="24">
+      <c r="E163" s="9">
         <v>5070668.16</v>
       </c>
-      <c r="F163" s="33">
+      <c r="F163" s="30">
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C164" s="29">
+      <c r="C164" s="26">
         <v>1509</v>
       </c>
-      <c r="D164" s="33">
+      <c r="D164" s="30">
         <v>1.18E-2</v>
       </c>
-      <c r="E164" s="24">
+      <c r="E164" s="9">
         <v>11738680.92</v>
       </c>
-      <c r="F164" s="33">
+      <c r="F164" s="30">
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C165" s="34">
+      <c r="C165" s="31">
         <v>17</v>
       </c>
-      <c r="D165" s="35">
+      <c r="D165" s="32">
         <v>1.3631953298531759E-4</v>
       </c>
-      <c r="E165" s="26">
+      <c r="E165" s="24">
         <v>146825.79999999999</v>
       </c>
-      <c r="F165" s="35">
+      <c r="F165" s="32">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C166" s="29">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C166" s="26">
         <v>128184</v>
       </c>
-      <c r="D166" s="36">
+      <c r="D166" s="33">
         <v>1</v>
       </c>
       <c r="E166" s="9">
         <v>994795015.64999998</v>
       </c>
-      <c r="F166" s="36">
+      <c r="F166" s="33">
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C167" s="29"/>
-      <c r="D167" s="33"/>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C167" s="26"/>
+      <c r="D167" s="30"/>
       <c r="E167" s="9"/>
-      <c r="F167" s="33"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F167" s="30"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C168" s="29"/>
-      <c r="D168" s="33"/>
+      <c r="C168" s="26"/>
+      <c r="D168" s="30"/>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C169" s="29"/>
-      <c r="D169" s="33"/>
+      <c r="C169" s="26"/>
+      <c r="D169" s="30"/>
       <c r="E169" s="9"/>
       <c r="F169" s="9">
         <v>994796646.92999995</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C170" s="29"/>
-      <c r="D170" s="33"/>
+      <c r="C170" s="26"/>
+      <c r="D170" s="30"/>
       <c r="E170" s="9"/>
       <c r="F170" s="9">
         <v>4114697.8</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C171" s="29"/>
-      <c r="D171" s="33"/>
+      <c r="C171" s="26"/>
+      <c r="D171" s="30"/>
       <c r="E171" s="9"/>
-      <c r="F171" s="27">
+      <c r="F171" s="24">
         <v>360647.8</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C172" s="29"/>
-      <c r="D172" s="33"/>
+      <c r="C172" s="26"/>
+      <c r="D172" s="30"/>
       <c r="E172" s="9"/>
-      <c r="F172" s="37">
+      <c r="F172" s="34">
         <v>3754050</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C173" s="29"/>
-      <c r="D173" s="33"/>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C173" s="26"/>
+      <c r="D173" s="30"/>
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C174" s="29"/>
-      <c r="D174" s="33"/>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C174" s="26"/>
+      <c r="D174" s="30"/>
       <c r="E174" s="9"/>
-      <c r="F174" s="33"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F174" s="30"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C175" s="29"/>
-      <c r="D175" s="33"/>
+      <c r="C175" s="26"/>
+      <c r="D175" s="30"/>
       <c r="E175" s="9"/>
-      <c r="F175" s="38">
+      <c r="F175" s="35">
         <v>4.5284229836341998</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C176" s="29"/>
-      <c r="D176" s="33"/>
+      <c r="C176" s="26"/>
+      <c r="D176" s="30"/>
       <c r="E176" s="9"/>
-      <c r="F176" s="38">
+      <c r="F176" s="35">
         <v>4.5680100100000001</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C177" s="29"/>
-      <c r="D177" s="33"/>
+      <c r="C177" s="26"/>
+      <c r="D177" s="30"/>
       <c r="E177" s="9"/>
-      <c r="F177" s="39">
+      <c r="F177" s="36">
         <v>4.2897410599999999</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C178" s="29"/>
-      <c r="D178" s="33"/>
+      <c r="C178" s="26"/>
+      <c r="D178" s="30"/>
       <c r="E178" s="9"/>
-      <c r="F178" s="40">
+      <c r="F178" s="37">
         <v>4.4620580165921</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C179" s="29"/>
-      <c r="D179" s="33"/>
+      <c r="C179" s="26"/>
+      <c r="D179" s="30"/>
       <c r="E179" s="9"/>
-      <c r="F179" s="41">
+      <c r="F179" s="38">
         <v>4.6589861499999996</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C180" s="29"/>
-      <c r="D180" s="33"/>
+      <c r="C180" s="26"/>
+      <c r="D180" s="30"/>
       <c r="E180" s="9"/>
-      <c r="F180" s="38">
+      <c r="F180" s="35">
         <v>4.8613655600000003</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C183" s="8" t="s">
         <v>29</v>
       </c>
@@ -2591,7 +2585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>171</v>
       </c>
@@ -2604,17 +2598,17 @@
       <c r="E184" s="12">
         <v>67.5</v>
       </c>
-      <c r="F184" s="42" t="s">
+      <c r="F184" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C185" s="43"/>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C185" s="40"/>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
       <c r="F185" s="8"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>25</v>
       </c>
@@ -2627,11 +2621,11 @@
       <c r="E186" s="12">
         <v>0.5</v>
       </c>
-      <c r="F186" s="42" t="s">
+      <c r="F186" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>24</v>
       </c>
@@ -2644,11 +2638,11 @@
       <c r="E187" s="12">
         <v>6</v>
       </c>
-      <c r="F187" s="42" t="s">
+      <c r="F187" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>23</v>
       </c>
@@ -2661,11 +2655,11 @@
       <c r="E188" s="12">
         <v>20</v>
       </c>
-      <c r="F188" s="42" t="s">
+      <c r="F188" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>22</v>
       </c>
@@ -2678,11 +2672,11 @@
       <c r="E189" s="12">
         <v>45</v>
       </c>
-      <c r="F189" s="42" t="s">
+      <c r="F189" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>21</v>
       </c>
@@ -2695,11 +2689,11 @@
       <c r="E190" s="12">
         <v>70</v>
       </c>
-      <c r="F190" s="42" t="s">
+      <c r="F190" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>20</v>
       </c>
@@ -2712,11 +2706,11 @@
       <c r="E191" s="12">
         <v>90</v>
       </c>
-      <c r="F191" s="42" t="s">
+      <c r="F191" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>19</v>
       </c>
@@ -2729,17 +2723,17 @@
       <c r="E192" s="15">
         <v>1</v>
       </c>
-      <c r="F192" s="42" t="s">
+      <c r="F192" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C193" s="15"/>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
-      <c r="F193" s="42"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F193" s="39"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>18</v>
       </c>
@@ -2752,11 +2746,11 @@
       <c r="E194" s="12">
         <v>40</v>
       </c>
-      <c r="F194" s="42" t="s">
+      <c r="F194" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>17</v>
       </c>
@@ -2769,11 +2763,11 @@
       <c r="E195" s="12">
         <v>15</v>
       </c>
-      <c r="F195" s="42" t="s">
+      <c r="F195" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>16</v>
       </c>
@@ -2786,17 +2780,17 @@
       <c r="E196" s="12">
         <v>12.5</v>
       </c>
-      <c r="F196" s="42" t="s">
+      <c r="F196" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C197" s="15"/>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
-      <c r="F197" s="42"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F197" s="39"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>15</v>
       </c>
@@ -2809,28 +2803,28 @@
       <c r="E198" s="12">
         <v>23.5</v>
       </c>
-      <c r="F198" s="42" t="s">
+      <c r="F198" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C199" s="13">
         <v>48</v>
       </c>
-      <c r="D199" s="44">
+      <c r="D199" s="41">
         <v>42.38</v>
       </c>
-      <c r="E199" s="44">
+      <c r="E199" s="41">
         <v>58</v>
       </c>
-      <c r="F199" s="42" t="s">
+      <c r="F199" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>13</v>
       </c>
@@ -2843,15 +2837,15 @@
       <c r="E200" s="12">
         <v>7.5</v>
       </c>
-      <c r="F200" s="42" t="s">
+      <c r="F200" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C201" s="45">
+      <c r="C201" s="42">
         <v>0.92</v>
       </c>
       <c r="D201" s="12">
@@ -2860,126 +2854,126 @@
       <c r="E201" s="12">
         <v>4</v>
       </c>
-      <c r="F201" s="42" t="s">
+      <c r="F201" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C202" s="46"/>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C202" s="43"/>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
-      <c r="F202" s="42"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F202" s="39"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C203" s="46"/>
+      <c r="C203" s="43"/>
       <c r="D203" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E203" s="15"/>
-      <c r="F203" s="42"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F203" s="39"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C204" s="46"/>
+      <c r="C204" s="43"/>
       <c r="D204" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E204" s="15"/>
-      <c r="F204" s="42"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F204" s="39"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C205" s="46"/>
+      <c r="C205" s="43"/>
       <c r="D205" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E205" s="19"/>
       <c r="F205" s="19"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C206" s="46"/>
+      <c r="C206" s="43"/>
       <c r="D206" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E206" s="19"/>
       <c r="F206" s="19"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C207" s="14">
         <v>0</v>
       </c>
-      <c r="D207" s="47">
+      <c r="D207" s="44">
         <v>0</v>
       </c>
       <c r="E207" s="14">
         <v>189474834.75</v>
       </c>
-      <c r="F207" s="42" t="s">
+      <c r="F207" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C208" s="48"/>
+      <c r="C208" s="45"/>
       <c r="D208" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="E208" s="28">
+      <c r="E208" s="25">
         <v>95</v>
       </c>
-      <c r="F208" s="42" t="s">
+      <c r="F208" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C209" s="48"/>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C209" s="45"/>
       <c r="D209" s="19"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C212" s="33"/>
-      <c r="E212" s="33"/>
+      <c r="C212" s="30"/>
+      <c r="E212" s="30"/>
       <c r="F212" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D213" s="28">
+      <c r="D213" s="25">
         <v>4.4620580165921</v>
       </c>
-      <c r="E213" s="28">
+      <c r="E213" s="25">
         <v>17</v>
       </c>
       <c r="F213" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>1</v>
       </c>
@@ -2987,126 +2981,126 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="49"/>
-      <c r="B216" s="49"/>
-      <c r="C216" s="49"/>
-      <c r="D216" s="49"/>
-      <c r="E216" s="49"/>
-      <c r="F216" s="49"/>
-      <c r="G216" s="49"/>
-      <c r="H216" s="49"/>
-      <c r="I216" s="49"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="49"/>
-      <c r="B217" s="49"/>
-      <c r="C217" s="49"/>
-      <c r="D217" s="49"/>
-      <c r="E217" s="49"/>
-      <c r="F217" s="49"/>
-      <c r="G217" s="49"/>
-      <c r="H217" s="49"/>
-      <c r="I217" s="49"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="49"/>
-      <c r="B218" s="49"/>
-      <c r="C218" s="49"/>
-      <c r="D218" s="49"/>
-      <c r="E218" s="49"/>
-      <c r="F218" s="49"/>
-      <c r="G218" s="49"/>
-      <c r="H218" s="49"/>
-      <c r="I218" s="49"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="49"/>
-      <c r="B219" s="49"/>
-      <c r="C219" s="49"/>
-      <c r="D219" s="49"/>
-      <c r="E219" s="49"/>
-      <c r="F219" s="49"/>
-      <c r="G219" s="49"/>
-      <c r="H219" s="49"/>
-      <c r="I219" s="49"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="49"/>
-      <c r="B220" s="49"/>
-      <c r="C220" s="49"/>
-      <c r="D220" s="49"/>
-      <c r="E220" s="49"/>
-      <c r="F220" s="49"/>
-      <c r="G220" s="49"/>
-      <c r="H220" s="49"/>
-      <c r="I220" s="49"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" s="49"/>
-      <c r="B221" s="49"/>
-      <c r="C221" s="49"/>
-      <c r="D221" s="49"/>
-      <c r="E221" s="49"/>
-      <c r="F221" s="49"/>
-      <c r="G221" s="49"/>
-      <c r="H221" s="49"/>
-      <c r="I221" s="49"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" s="49"/>
-      <c r="B222" s="49"/>
-      <c r="C222" s="49"/>
-      <c r="D222" s="49"/>
-      <c r="E222" s="49"/>
-      <c r="F222" s="49"/>
-      <c r="G222" s="49"/>
-      <c r="H222" s="49"/>
-      <c r="I222" s="49"/>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A223" s="49"/>
-      <c r="B223" s="49"/>
-      <c r="C223" s="49"/>
-      <c r="D223" s="49"/>
-      <c r="E223" s="49"/>
-      <c r="F223" s="49"/>
-      <c r="G223" s="49"/>
-      <c r="H223" s="49"/>
-      <c r="I223" s="49"/>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" s="49"/>
-      <c r="B224" s="49"/>
-      <c r="C224" s="49"/>
-      <c r="D224" s="49"/>
-      <c r="E224" s="49"/>
-      <c r="F224" s="49"/>
-      <c r="G224" s="49"/>
-      <c r="H224" s="49"/>
-      <c r="I224" s="49"/>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="49"/>
-      <c r="B225" s="49"/>
-      <c r="C225" s="49"/>
-      <c r="D225" s="49"/>
-      <c r="E225" s="49"/>
-      <c r="F225" s="49"/>
-      <c r="G225" s="49"/>
-      <c r="H225" s="49"/>
-      <c r="I225" s="49"/>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" s="49"/>
-      <c r="B226" s="49"/>
-      <c r="C226" s="49"/>
-      <c r="D226" s="49"/>
-      <c r="E226" s="49"/>
-      <c r="F226" s="49"/>
-      <c r="G226" s="49"/>
-      <c r="H226" s="49"/>
-      <c r="I226" s="49"/>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216"/>
+      <c r="B216"/>
+      <c r="C216"/>
+      <c r="D216"/>
+      <c r="E216"/>
+      <c r="F216"/>
+      <c r="G216"/>
+      <c r="H216"/>
+      <c r="I216"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217"/>
+      <c r="B217"/>
+      <c r="C217"/>
+      <c r="D217"/>
+      <c r="E217"/>
+      <c r="F217"/>
+      <c r="G217"/>
+      <c r="H217"/>
+      <c r="I217"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218"/>
+      <c r="B218"/>
+      <c r="C218"/>
+      <c r="D218"/>
+      <c r="E218"/>
+      <c r="F218"/>
+      <c r="G218"/>
+      <c r="H218"/>
+      <c r="I218"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219"/>
+      <c r="B219"/>
+      <c r="C219"/>
+      <c r="D219"/>
+      <c r="E219"/>
+      <c r="F219"/>
+      <c r="G219"/>
+      <c r="H219"/>
+      <c r="I219"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220"/>
+      <c r="B220"/>
+      <c r="C220"/>
+      <c r="D220"/>
+      <c r="E220"/>
+      <c r="F220"/>
+      <c r="G220"/>
+      <c r="H220"/>
+      <c r="I220"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221"/>
+      <c r="B221"/>
+      <c r="C221"/>
+      <c r="D221"/>
+      <c r="E221"/>
+      <c r="F221"/>
+      <c r="G221"/>
+      <c r="H221"/>
+      <c r="I221"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222"/>
+      <c r="B222"/>
+      <c r="C222"/>
+      <c r="D222"/>
+      <c r="E222"/>
+      <c r="F222"/>
+      <c r="G222"/>
+      <c r="H222"/>
+      <c r="I222"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223"/>
+      <c r="B223"/>
+      <c r="C223"/>
+      <c r="D223"/>
+      <c r="E223"/>
+      <c r="F223"/>
+      <c r="G223"/>
+      <c r="H223"/>
+      <c r="I223"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A224"/>
+      <c r="B224"/>
+      <c r="C224"/>
+      <c r="D224"/>
+      <c r="E224"/>
+      <c r="F224"/>
+      <c r="G224"/>
+      <c r="H224"/>
+      <c r="I224"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A225"/>
+      <c r="B225"/>
+      <c r="C225"/>
+      <c r="D225"/>
+      <c r="E225"/>
+      <c r="F225"/>
+      <c r="G225"/>
+      <c r="H225"/>
+      <c r="I225"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A226"/>
+      <c r="B226"/>
+      <c r="C226"/>
+      <c r="D226"/>
+      <c r="E226"/>
+      <c r="F226"/>
+      <c r="G226"/>
+      <c r="H226"/>
+      <c r="I226"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
